--- a/Lab 10 - Enzyme/molar_absorptivity_determination.xlsx
+++ b/Lab 10 - Enzyme/molar_absorptivity_determination.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brada\Documents\UofT\Year 1\Chm151\labs\lab 9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/samihat_rahman_mail_utoronto_ca/Documents/Desktop/Teaching/2024-25 Summer CTFP/Experiment 10 - Enzyme Kinetics/Empty Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC304D53-972F-4F16-914B-5B928709349A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_F25DC773A252ABDACC1048B8519A49685ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85BE63FC-DFDC-4269-AA0C-3A27B509F743}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="4260" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -48,11 +37,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000000"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -80,9 +74,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,67 +360,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>3.3000000000000003E-5</v>
-      </c>
-      <c r="B2">
-        <v>0.76171999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B3">
-        <v>0.96006999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>6.7000000000000002E-5</v>
-      </c>
-      <c r="B4">
-        <v>1.19367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>8.2999999999999998E-5</v>
-      </c>
-      <c r="B5">
-        <v>1.5253000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="B6">
-        <v>1.82728</v>
-      </c>
-    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="NwbJhgMlmlL+ATg8iI2B0nezr+h0fmxigqhWOVvUhQZb8dI3UlsmPsZF3Bl9qPdAVzYqT3jDFGVzvth7oTcsYg==" saltValue="vRevYBbZvhZ4doBa6E/C5g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>